--- a/database/dy/expdata/2001.xlsx
+++ b/database/dy/expdata/2001.xlsx
@@ -38,9 +38,6 @@
     <t>target</t>
   </si>
   <si>
-    <t>proton</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>sqrtenergy</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,57 +417,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
         <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>-0.6</v>
@@ -502,19 +502,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
       <c r="F3">
         <v>-0.6</v>
@@ -549,19 +549,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>-0.2</v>
@@ -596,19 +596,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
       <c r="F5">
         <v>-0.2</v>
@@ -643,19 +643,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>0.2</v>
@@ -690,19 +690,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
       </c>
       <c r="F7">
         <v>0.2</v>

--- a/database/dy/expdata/2001.xlsx
+++ b/database/dy/expdata/2001.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>col</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>BeamTransversePolarization</t>
+  </si>
+  <si>
+    <t>TargetTransversePolarization</t>
   </si>
 </sst>
 </file>
@@ -398,340 +404,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
+      <c r="B2" t="b">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>-0.6</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>-0.2</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-0.38</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>5.3</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
         <v>0.12</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
+      <c r="B3" t="b">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="D3" t="b">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>-0.6</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>-0.2</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>-0.38</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>5.3</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.5</v>
       </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
         <v>0.15</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.15</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
+      <c r="B4" t="b">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>-0.2</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.2</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>5.3</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.5</v>
       </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
         <v>0.23</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.21</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
+      <c r="B5" t="b">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
+      <c r="D5" t="b">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>-0.2</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.2</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>5.3</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.5</v>
       </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
         <v>0.27</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.11</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
+      <c r="B6" t="b">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.2</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.6</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.38</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>5.3</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.5</v>
       </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
         <v>0.4</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.24</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
+      <c r="B7" t="b">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
+      <c r="D7" t="b">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.2</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.6</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.38</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>5.3</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.5</v>
       </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
         <v>1.4E-2</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.13</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>2E-3</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>500</v>
       </c>
     </row>
